--- a/config_2.9/level_server.xlsx
+++ b/config_2.9/level_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="level_data" sheetId="2" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>32</v>
@@ -2797,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/level_server.xlsx
+++ b/config_2.9/level_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -169,141 +169,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"fish_coin","prop_3d_fish_lock"</t>
-  </si>
-  <si>
-    <t>"fish_coin","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>"fish_coin","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>score|经验值，差值计算</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>tips|标签</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -414,219 +283,311 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4600,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6300,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7200,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7800,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7900,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8100,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8400,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8500,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>8700,1,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>"shop_gold_sum","fish_coin","prop_3d_fish_lock"</t>
+  </si>
+  <si>
+    <t>1,1000,1,</t>
+  </si>
+  <si>
+    <t>1,1100,1,</t>
+  </si>
+  <si>
+    <t>1,1200,1,</t>
+  </si>
+  <si>
+    <t>1,1300,1,</t>
+  </si>
+  <si>
+    <t>1,1400,1,</t>
+  </si>
+  <si>
+    <t>1,1500,1,</t>
+  </si>
+  <si>
+    <t>1,1600,1,</t>
+  </si>
+  <si>
+    <t>1,1700,1,</t>
+  </si>
+  <si>
+    <t>1,1800,1,</t>
+  </si>
+  <si>
+    <t>1,1900,1,</t>
+  </si>
+  <si>
+    <t>2,1000,1,</t>
+  </si>
+  <si>
+    <t>2,1100,1,</t>
+  </si>
+  <si>
+    <t>2,1200,1,</t>
+  </si>
+  <si>
+    <t>2,1300,1,</t>
+  </si>
+  <si>
+    <t>2,1400,1,</t>
+  </si>
+  <si>
+    <t>2,1500,1,</t>
+  </si>
+  <si>
+    <t>2,1600,1,</t>
+  </si>
+  <si>
+    <t>2,1700,1,</t>
+  </si>
+  <si>
+    <t>2,1800,1,</t>
+  </si>
+  <si>
+    <t>2,1900,1,</t>
+  </si>
+  <si>
+    <t>3,1000,1,</t>
+  </si>
+  <si>
+    <t>3,1100,1,</t>
+  </si>
+  <si>
+    <t>3,1200,1,</t>
+  </si>
+  <si>
+    <t>3,1300,1,</t>
+  </si>
+  <si>
+    <t>3,1400,1,</t>
+  </si>
+  <si>
+    <t>3,1500,1,</t>
+  </si>
+  <si>
+    <t>3,1600,1,</t>
+  </si>
+  <si>
+    <t>3,1700,1,</t>
+  </si>
+  <si>
+    <t>3,1800,1,</t>
+  </si>
+  <si>
+    <t>3,1900,1,</t>
+  </si>
+  <si>
+    <t>4,1000,1,</t>
+  </si>
+  <si>
+    <t>4,1100,1,</t>
+  </si>
+  <si>
+    <t>4,1200,1,</t>
+  </si>
+  <si>
+    <t>4,1300,1,</t>
+  </si>
+  <si>
+    <t>4,1400,1,</t>
+  </si>
+  <si>
+    <t>4,1500,1,</t>
+  </si>
+  <si>
+    <t>4,1600,1,</t>
+  </si>
+  <si>
+    <t>4,1700,1,</t>
+  </si>
+  <si>
+    <t>4,1800,1,</t>
+  </si>
+  <si>
+    <t>4,1900,1,</t>
+  </si>
+  <si>
+    <t>5,1000,1,</t>
+  </si>
+  <si>
+    <t>5,1100,1,</t>
+  </si>
+  <si>
+    <t>5,1200,1,</t>
+  </si>
+  <si>
+    <t>5,1300,1,</t>
+  </si>
+  <si>
+    <t>5,1400,1,</t>
+  </si>
+  <si>
+    <t>5,1500,1,</t>
+  </si>
+  <si>
+    <t>5,1600,1,</t>
+  </si>
+  <si>
+    <t>5,1700,1,</t>
+  </si>
+  <si>
+    <t>5,1800,1,</t>
+  </si>
+  <si>
+    <t>5,1900,1,</t>
+  </si>
+  <si>
+    <t>6,1000,1,</t>
+  </si>
+  <si>
+    <t>6,1100,1,</t>
+  </si>
+  <si>
+    <t>6,1200,1,</t>
+  </si>
+  <si>
+    <t>6,1300,1,</t>
+  </si>
+  <si>
+    <t>6,1400,1,</t>
+  </si>
+  <si>
+    <t>6,1500,1,</t>
+  </si>
+  <si>
+    <t>6,1600,1,</t>
+  </si>
+  <si>
+    <t>6,1700,1,</t>
+  </si>
+  <si>
+    <t>6,1800,1,</t>
+  </si>
+  <si>
+    <t>6,1900,1,</t>
+  </si>
+  <si>
+    <t>7,1000,1,</t>
+  </si>
+  <si>
+    <t>7,1100,1,</t>
+  </si>
+  <si>
+    <t>7,1200,1,</t>
+  </si>
+  <si>
+    <t>7,1300,1,</t>
+  </si>
+  <si>
+    <t>7,1400,1,</t>
+  </si>
+  <si>
+    <t>7,1500,1,</t>
+  </si>
+  <si>
+    <t>7,1600,1,</t>
+  </si>
+  <si>
+    <t>7,1700,1,</t>
+  </si>
+  <si>
+    <t>7,1800,1,</t>
+  </si>
+  <si>
+    <t>7,1900,1,</t>
+  </si>
+  <si>
+    <t>8,1000,1,</t>
+  </si>
+  <si>
+    <t>8,1100,1,</t>
+  </si>
+  <si>
+    <t>8,1200,1,</t>
+  </si>
+  <si>
+    <t>8,1300,1,</t>
+  </si>
+  <si>
+    <t>8,1400,1,</t>
+  </si>
+  <si>
+    <t>8,1500,1,</t>
+  </si>
+  <si>
+    <t>8,1600,1,</t>
+  </si>
+  <si>
+    <t>8,1700,1,</t>
+  </si>
+  <si>
+    <t>8,1800,1,</t>
+  </si>
+  <si>
+    <t>8,1900,1,</t>
+  </si>
+  <si>
+    <t>9,1000,1,</t>
+  </si>
+  <si>
+    <t>9,1100,1,</t>
+  </si>
+  <si>
+    <t>9,1200,1,</t>
+  </si>
+  <si>
+    <t>9,1300,1,</t>
+  </si>
+  <si>
+    <t>9,1400,1,</t>
+  </si>
+  <si>
+    <t>9,1500,1,</t>
+  </si>
+  <si>
+    <t>9,1600,1,</t>
+  </si>
+  <si>
+    <t>9,1700,1,</t>
+  </si>
+  <si>
+    <t>9,1800,1,</t>
+  </si>
+  <si>
+    <t>9,1900,1,</t>
+  </si>
+  <si>
+    <t>10,1000,1,</t>
+  </si>
+  <si>
+    <t>10,1100,1,</t>
+  </si>
+  <si>
+    <t>10,1200,1,</t>
+  </si>
+  <si>
+    <t>10,1300,1,</t>
+  </si>
+  <si>
+    <t>10,1400,1,</t>
+  </si>
+  <si>
+    <t>10,1500,1,</t>
+  </si>
+  <si>
+    <t>10,1600,1,</t>
+  </si>
+  <si>
+    <t>10,1700,1,</t>
+  </si>
+  <si>
+    <t>10,1800,1,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,6 +679,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -806,11 +774,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1117,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>7</v>
@@ -2829,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2838,7 +2806,7 @@
     <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="43.375" customWidth="1"/>
     <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
@@ -2867,17 +2835,17 @@
       <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>93</v>
+      <c r="H1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -2893,11 +2861,11 @@
       <c r="D2" s="2">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>98</v>
+      <c r="E2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="G2" s="5">
         <v>600</v>
@@ -2916,11 +2884,11 @@
       <c r="D3" s="8">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>99</v>
+      <c r="E3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="G3" s="5">
         <v>700</v>
@@ -2939,11 +2907,11 @@
       <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>100</v>
+      <c r="E4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G4" s="5">
         <v>800</v>
@@ -2962,11 +2930,11 @@
       <c r="D5" s="8">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>101</v>
+      <c r="E5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="G5" s="5">
         <v>900</v>
@@ -2985,11 +2953,11 @@
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>102</v>
+      <c r="E6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G6" s="5">
         <v>1000</v>
@@ -3003,11 +2971,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>103</v>
+      <c r="E7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3023,11 +2991,11 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>104</v>
+      <c r="E8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="G8" s="5">
         <v>2000</v>
@@ -3046,11 +3014,11 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>105</v>
+      <c r="E9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="G9" s="5">
         <v>3000</v>
@@ -3069,11 +3037,11 @@
       <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>106</v>
+      <c r="E10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="G10" s="5">
         <v>4000</v>
@@ -3092,11 +3060,11 @@
       <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>107</v>
+      <c r="E11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G11" s="5">
         <v>5000</v>
@@ -3115,11 +3083,11 @@
       <c r="D12" s="2">
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
+      <c r="E12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="G12" s="5">
         <v>6000</v>
@@ -3138,11 +3106,11 @@
       <c r="D13" s="2">
         <v>7</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>108</v>
+      <c r="E13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="G13" s="5">
         <v>7000</v>
@@ -3161,11 +3129,11 @@
       <c r="D14" s="2">
         <v>8</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
+      <c r="E14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="G14" s="5">
         <v>8000</v>
@@ -3184,11 +3152,11 @@
       <c r="D15" s="2">
         <v>9</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>109</v>
+      <c r="E15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="5">
         <v>9000</v>
@@ -3207,11 +3175,11 @@
       <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>110</v>
+      <c r="E16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="G16" s="5">
         <v>10000</v>
@@ -3224,11 +3192,11 @@
       <c r="B17" s="12">
         <v>17</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>39</v>
+      <c r="E17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -3241,11 +3209,11 @@
       <c r="B18" s="12">
         <v>18</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>40</v>
+      <c r="E18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -3258,11 +3226,11 @@
       <c r="B19" s="12">
         <v>19</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>111</v>
+      <c r="E19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3275,11 +3243,11 @@
       <c r="B20" s="12">
         <v>20</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>112</v>
+      <c r="E20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3292,11 +3260,11 @@
       <c r="B21" s="12">
         <v>21</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>113</v>
+      <c r="E21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3311,11 +3279,11 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>41</v>
+      <c r="E22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="7"/>
@@ -3331,11 +3299,11 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>114</v>
+      <c r="E23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="7"/>
@@ -3351,11 +3319,11 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>42</v>
+      <c r="E24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="7"/>
@@ -3369,20 +3337,20 @@
       <c r="B25" s="12">
         <v>25</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>43</v>
+      <c r="E25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3395,11 +3363,11 @@
       <c r="B26" s="12">
         <v>26</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>115</v>
+      <c r="E26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3411,11 +3379,11 @@
       <c r="B27" s="12">
         <v>27</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>116</v>
+      <c r="E27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3427,11 +3395,11 @@
       <c r="B28" s="12">
         <v>28</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>44</v>
+      <c r="E28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3443,11 +3411,11 @@
       <c r="B29" s="12">
         <v>29</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>117</v>
+      <c r="E29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3459,20 +3427,20 @@
       <c r="B30" s="12">
         <v>30</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>45</v>
+      <c r="E30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3485,11 +3453,11 @@
       <c r="B31" s="12">
         <v>31</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>46</v>
+      <c r="E31" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -3502,11 +3470,11 @@
       <c r="B32" s="12">
         <v>32</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>47</v>
+      <c r="E32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3519,11 +3487,11 @@
       <c r="B33" s="12">
         <v>33</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>118</v>
+      <c r="E33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3536,11 +3504,11 @@
       <c r="B34" s="12">
         <v>34</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>48</v>
+      <c r="E34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -3553,11 +3521,11 @@
       <c r="B35" s="12">
         <v>35</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>119</v>
+      <c r="E35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3570,11 +3538,11 @@
       <c r="B36" s="12">
         <v>36</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>120</v>
+      <c r="E36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -3587,11 +3555,11 @@
       <c r="B37" s="12">
         <v>37</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>121</v>
+      <c r="E37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -3604,11 +3572,11 @@
       <c r="B38" s="12">
         <v>38</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>122</v>
+      <c r="E38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -3621,11 +3589,11 @@
       <c r="B39" s="12">
         <v>39</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>123</v>
+      <c r="E39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3638,20 +3606,20 @@
       <c r="B40" s="12">
         <v>40</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>124</v>
+      <c r="E40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3664,11 +3632,11 @@
       <c r="B41" s="12">
         <v>41</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>125</v>
+      <c r="E41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -3680,11 +3648,11 @@
       <c r="B42" s="12">
         <v>42</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>49</v>
+      <c r="E42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -3696,11 +3664,11 @@
       <c r="B43" s="12">
         <v>43</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>50</v>
+      <c r="E43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -3712,11 +3680,11 @@
       <c r="B44" s="12">
         <v>44</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>126</v>
+      <c r="E44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -3728,11 +3696,11 @@
       <c r="B45" s="12">
         <v>45</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>127</v>
+      <c r="E45" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -3744,11 +3712,11 @@
       <c r="B46" s="12">
         <v>46</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>128</v>
+      <c r="E46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -3760,11 +3728,11 @@
       <c r="B47" s="12">
         <v>47</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>129</v>
+      <c r="E47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -3776,11 +3744,11 @@
       <c r="B48" s="12">
         <v>48</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>51</v>
+      <c r="E48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -3792,11 +3760,11 @@
       <c r="B49" s="12">
         <v>49</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>130</v>
+      <c r="E49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -3808,20 +3776,20 @@
       <c r="B50" s="12">
         <v>50</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>131</v>
+      <c r="E50" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -3834,11 +3802,11 @@
       <c r="B51" s="12">
         <v>51</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>132</v>
+      <c r="E51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -3851,11 +3819,11 @@
       <c r="B52" s="12">
         <v>52</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>133</v>
+      <c r="E52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -3868,11 +3836,11 @@
       <c r="B53" s="12">
         <v>53</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>134</v>
+      <c r="E53" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -3885,11 +3853,11 @@
       <c r="B54" s="12">
         <v>54</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>135</v>
+      <c r="E54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -3902,11 +3870,11 @@
       <c r="B55" s="12">
         <v>55</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>136</v>
+      <c r="E55" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -3919,11 +3887,11 @@
       <c r="B56" s="12">
         <v>56</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>137</v>
+      <c r="E56" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -3936,11 +3904,11 @@
       <c r="B57" s="12">
         <v>57</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>138</v>
+      <c r="E57" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -3953,11 +3921,11 @@
       <c r="B58" s="12">
         <v>58</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>52</v>
+      <c r="E58" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -3970,11 +3938,11 @@
       <c r="B59" s="12">
         <v>59</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>53</v>
+      <c r="E59" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -3987,20 +3955,20 @@
       <c r="B60" s="12">
         <v>60</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>54</v>
+      <c r="E60" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4013,11 +3981,11 @@
       <c r="B61" s="12">
         <v>61</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>55</v>
+      <c r="E61" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -4029,11 +3997,11 @@
       <c r="B62" s="12">
         <v>62</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>139</v>
+      <c r="E62" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -4045,11 +4013,11 @@
       <c r="B63" s="12">
         <v>63</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>140</v>
+      <c r="E63" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -4061,11 +4029,11 @@
       <c r="B64" s="12">
         <v>64</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>141</v>
+      <c r="E64" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -4077,11 +4045,11 @@
       <c r="B65" s="12">
         <v>65</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>56</v>
+      <c r="E65" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -4093,11 +4061,11 @@
       <c r="B66" s="12">
         <v>66</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>57</v>
+      <c r="E66" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -4109,11 +4077,11 @@
       <c r="B67" s="12">
         <v>67</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>58</v>
+      <c r="E67" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -4125,11 +4093,11 @@
       <c r="B68" s="12">
         <v>68</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>59</v>
+      <c r="E68" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -4141,11 +4109,11 @@
       <c r="B69" s="12">
         <v>69</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>142</v>
+      <c r="E69" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -4157,20 +4125,20 @@
       <c r="B70" s="12">
         <v>70</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>143</v>
+      <c r="E70" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -4183,11 +4151,11 @@
       <c r="B71" s="12">
         <v>71</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>144</v>
+      <c r="E71" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -4200,11 +4168,11 @@
       <c r="B72" s="12">
         <v>72</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>145</v>
+      <c r="E72" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -4217,11 +4185,11 @@
       <c r="B73" s="12">
         <v>73</v>
       </c>
-      <c r="E73" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>146</v>
+      <c r="E73" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -4234,11 +4202,11 @@
       <c r="B74" s="12">
         <v>74</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>60</v>
+      <c r="E74" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -4251,11 +4219,11 @@
       <c r="B75" s="12">
         <v>75</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>61</v>
+      <c r="E75" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -4268,11 +4236,11 @@
       <c r="B76" s="12">
         <v>76</v>
       </c>
-      <c r="E76" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>147</v>
+      <c r="E76" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -4285,11 +4253,11 @@
       <c r="B77" s="12">
         <v>77</v>
       </c>
-      <c r="E77" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>148</v>
+      <c r="E77" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -4302,11 +4270,11 @@
       <c r="B78" s="12">
         <v>78</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>62</v>
+      <c r="E78" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -4319,11 +4287,11 @@
       <c r="B79" s="12">
         <v>79</v>
       </c>
-      <c r="E79" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>149</v>
+      <c r="E79" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -4336,20 +4304,20 @@
       <c r="B80" s="12">
         <v>80</v>
       </c>
-      <c r="E80" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>63</v>
+      <c r="E80" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -4362,11 +4330,11 @@
       <c r="B81" s="12">
         <v>81</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>64</v>
+      <c r="E81" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -4378,11 +4346,11 @@
       <c r="B82" s="12">
         <v>82</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>65</v>
+      <c r="E82" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -4394,11 +4362,11 @@
       <c r="B83" s="12">
         <v>83</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>66</v>
+      <c r="E83" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -4410,11 +4378,11 @@
       <c r="B84" s="12">
         <v>84</v>
       </c>
-      <c r="E84" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>66</v>
+      <c r="E84" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -4426,11 +4394,11 @@
       <c r="B85" s="12">
         <v>85</v>
       </c>
-      <c r="E85" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>66</v>
+      <c r="E85" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -4442,11 +4410,11 @@
       <c r="B86" s="12">
         <v>86</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>66</v>
+      <c r="E86" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -4458,11 +4426,11 @@
       <c r="B87" s="12">
         <v>87</v>
       </c>
-      <c r="E87" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>66</v>
+      <c r="E87" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -4474,11 +4442,11 @@
       <c r="B88" s="12">
         <v>88</v>
       </c>
-      <c r="E88" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>66</v>
+      <c r="E88" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -4490,11 +4458,11 @@
       <c r="B89" s="12">
         <v>89</v>
       </c>
-      <c r="E89" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>66</v>
+      <c r="E89" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -4506,20 +4474,20 @@
       <c r="B90" s="12">
         <v>90</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>66</v>
+      <c r="E90" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -4532,11 +4500,11 @@
       <c r="B91" s="12">
         <v>91</v>
       </c>
-      <c r="E91" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>66</v>
+      <c r="E91" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -4549,11 +4517,11 @@
       <c r="B92" s="12">
         <v>92</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>66</v>
+      <c r="E92" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -4566,11 +4534,11 @@
       <c r="B93" s="12">
         <v>93</v>
       </c>
-      <c r="E93" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>66</v>
+      <c r="E93" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -4583,11 +4551,11 @@
       <c r="B94" s="12">
         <v>94</v>
       </c>
-      <c r="E94" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>66</v>
+      <c r="E94" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -4600,11 +4568,11 @@
       <c r="B95" s="12">
         <v>95</v>
       </c>
-      <c r="E95" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>66</v>
+      <c r="E95" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -4617,11 +4585,11 @@
       <c r="B96" s="12">
         <v>96</v>
       </c>
-      <c r="E96" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>66</v>
+      <c r="E96" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -4634,11 +4602,11 @@
       <c r="B97" s="12">
         <v>97</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>66</v>
+      <c r="E97" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -4651,11 +4619,11 @@
       <c r="B98" s="12">
         <v>98</v>
       </c>
-      <c r="E98" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>66</v>
+      <c r="E98" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -4668,11 +4636,11 @@
       <c r="B99" s="12">
         <v>99</v>
       </c>
-      <c r="E99" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>66</v>
+      <c r="E99" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -4685,20 +4653,20 @@
       <c r="B100" s="12">
         <v>100</v>
       </c>
-      <c r="E100" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>66</v>
+      <c r="E100" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="K100">
         <v>1</v>
